--- a/国考填报表.xlsx
+++ b/国考填报表.xlsx
@@ -644,13 +644,14 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H114" activeCellId="0" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
